--- a/Feature-Analysis/Resize Feature/s_06_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_06_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.49076388893</v>
+        <v>738157.49076388893</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.49209490744</v>
+        <v>738157.49209490744</v>
       </c>
       <c r="C3" s="0">
         <v>114.99999985098839</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.49209490744</v>
+        <v>738157.49209490744</v>
       </c>
       <c r="C4" s="0">
         <v>114.99999985098839</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.49209490744</v>
+        <v>738157.49209490744</v>
       </c>
       <c r="C5" s="0">
         <v>114.99999985098839</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.49209490744</v>
+        <v>738157.49209490744</v>
       </c>
       <c r="C6" s="0">
         <v>114.99999985098839</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.49256944447</v>
+        <v>738157.49256944447</v>
       </c>
       <c r="C7" s="0">
         <v>155.99999874830246</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.49296296295</v>
+        <v>738157.49296296295</v>
       </c>
       <c r="C8" s="0">
         <v>189.99999538064003</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.49320601847</v>
+        <v>738157.49320601847</v>
       </c>
       <c r="C9" s="0">
         <v>210.99999211728573</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.49349537038</v>
+        <v>738157.49349537038</v>
       </c>
       <c r="C10" s="0">
         <v>235.99999733269215</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.493912037</v>
+        <v>738157.493912037</v>
       </c>
       <c r="C11" s="0">
         <v>271.99999317526817</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.49417824077</v>
+        <v>738157.49417824077</v>
       </c>
       <c r="C12" s="0">
         <v>294.99999918043613</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.49533564819</v>
+        <v>738157.49533564819</v>
       </c>
       <c r="C13" s="0">
         <v>394.99999992549419</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.49533564819</v>
+        <v>738157.49533564819</v>
       </c>
       <c r="C14" s="0">
         <v>394.99999992549419</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.49533564819</v>
+        <v>738157.49533564819</v>
       </c>
       <c r="C15" s="0">
         <v>394.99999992549419</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.49604166672</v>
+        <v>738157.49604166672</v>
       </c>
       <c r="C16" s="0">
         <v>456.00000098347664</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.49604166672</v>
+        <v>738157.49604166672</v>
       </c>
       <c r="C17" s="0">
         <v>456.00000098347664</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.49612268514</v>
+        <v>738157.49612268514</v>
       </c>
       <c r="C18" s="0">
         <v>462.99999319016933</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.4976967593</v>
+        <v>738157.4976967593</v>
       </c>
       <c r="C19" s="0">
         <v>598.99999983608723</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.4976967593</v>
+        <v>738157.4976967593</v>
       </c>
       <c r="C20" s="0">
         <v>598.99999983608723</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.4976967593</v>
+        <v>738157.4976967593</v>
       </c>
       <c r="C21" s="0">
         <v>598.99999983608723</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.4976967593</v>
+        <v>738157.4976967593</v>
       </c>
       <c r="C22" s="0">
         <v>598.99999983608723</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.49791666667</v>
+        <v>738157.49791666667</v>
       </c>
       <c r="C23" s="0">
         <v>617.99999736249447</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.498912037</v>
+        <v>738157.498912037</v>
       </c>
       <c r="C24" s="0">
         <v>703.99999357759953</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.498912037</v>
+        <v>738157.498912037</v>
       </c>
       <c r="C25" s="0">
         <v>703.99999357759953</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.498912037</v>
+        <v>738157.498912037</v>
       </c>
       <c r="C26" s="0">
         <v>703.99999357759953</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.49906249996</v>
+        <v>738157.49906249996</v>
       </c>
       <c r="C27" s="0">
         <v>716.9999934732914</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.49946759257</v>
+        <v>738157.49946759257</v>
       </c>
       <c r="C28" s="0">
         <v>751.9999947398901</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.49984953704</v>
+        <v>738157.49984953704</v>
       </c>
       <c r="C29" s="0">
         <v>784.99999679625034</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.5001157407</v>
+        <v>738157.5001157407</v>
       </c>
       <c r="C30" s="0">
         <v>807.9999927431345</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.50039351848</v>
+        <v>738157.50039351848</v>
       </c>
       <c r="C31" s="0">
         <v>831.99999332427979</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.50093750004</v>
+        <v>738157.50093750004</v>
       </c>
       <c r="C32" s="0">
         <v>878.99999991059303</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.50114583329</v>
+        <v>738157.50114583329</v>
       </c>
       <c r="C33" s="0">
         <v>896.99999280273914</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.50152777776</v>
+        <v>738157.50152777776</v>
       </c>
       <c r="C34" s="0">
         <v>929.99999485909939</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.50171296299</v>
+        <v>738157.50171296299</v>
       </c>
       <c r="C35" s="0">
         <v>945.99999859929085</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.50238425925</v>
+        <v>738157.50238425925</v>
       </c>
       <c r="C36" s="0">
         <v>1003.9999958127737</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.50238425925</v>
+        <v>738157.50238425925</v>
       </c>
       <c r="C37" s="0">
         <v>1003.9999958127737</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.50284722226</v>
+        <v>738157.50284722226</v>
       </c>
       <c r="C38" s="0">
         <v>1044.0000001341105</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.50329861115</v>
+        <v>738157.50329861115</v>
       </c>
       <c r="C39" s="0">
         <v>1082.9999998211861</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.50369212963</v>
+        <v>738157.50369212963</v>
       </c>
       <c r="C40" s="0">
         <v>1116.9999964535236</v>
